--- a/resource/data/Pokedex.xlsx
+++ b/resource/data/Pokedex.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\!Personalizado\!dev\PokeJava\resource\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A15D264-4434-44BC-AAC2-B5D40D558C36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69EDE937-5B29-4D80-92F6-9AB69A0471F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{58437E5F-14CE-46D8-9DB4-A3F5FABF1399}"/>
   </bookViews>
@@ -1215,7 +1215,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1240,10 +1240,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2060,7 +2056,7 @@
   <dimension ref="A1:I153"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="G74" sqref="G74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2106,31 +2102,31 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="4" t="s">
         <v>350</v>
       </c>
-      <c r="B2" s="14" t="s">
-        <v>315</v>
-      </c>
-      <c r="C2" s="14" t="s">
+      <c r="B2" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="5" t="s">
         <v>351</v>
       </c>
-      <c r="F2" s="14" t="s">
-        <v>315</v>
-      </c>
-      <c r="G2" s="14" t="s">
-        <v>315</v>
-      </c>
-      <c r="H2" s="14" t="s">
+      <c r="F2" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>346</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="I2" s="4" t="s">
         <v>346</v>
       </c>
     </row>
@@ -2531,7 +2527,7 @@
         <v>176</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="H16" s="4">
         <v>45</v>
@@ -4213,7 +4209,7 @@
         <v>315</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H74" s="4">
         <v>40</v>
@@ -5982,7 +5978,7 @@
         <v>315</v>
       </c>
       <c r="G135" s="4" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H135" s="4">
         <v>55</v>
